--- a/biology/Botanique/Bacopa_monnieri/Bacopa_monnieri.xlsx
+++ b/biology/Botanique/Bacopa_monnieri/Bacopa_monnieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bacopa monnieri, « hysope d’eau, ou encore en sanskrit brāhmī[1] (bien que ce nom désigne également la Centella asiatica dans d'autres langues indiennes)[2] est une espèce de plante grasse, aquatique, vivace et dicotylédone. Très recherchée pour ses propriétés médicinales nootropes en médecine ayurvédique, et en raison de la dégradation et régression de ses habitats (zones humides) elle est aujourd'hui « très menacée » dans une partie de son aire naturelle de répartition[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bacopa monnieri, « hysope d’eau, ou encore en sanskrit brāhmī (bien que ce nom désigne également la Centella asiatica dans d'autres langues indiennes) est une espèce de plante grasse, aquatique, vivace et dicotylédone. Très recherchée pour ses propriétés médicinales nootropes en médecine ayurvédique, et en raison de la dégradation et régression de ses habitats (zones humides) elle est aujourd'hui « très menacée » dans une partie de son aire naturelle de répartition. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce appartient à la famille des Scrophulariaceae selon la classification classique, ou à celle des Plantaginaceae selon la classification cladistique.
 </t>
@@ -542,11 +556,13 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse communément dans les marais en Inde, au Népal, au Sri Lanka, en Chine, à Taïwan et au Vietnam. 
 On la trouve maintenant aussi en Floride et dans d'autres états du sud des États-Unis où elle peut être cultivée dans des lieux humides comme des étangs ou des tourbières. 
-Elle a également été trouvée depuis les années 1980 dans le sud de l'Europe[4]. Selon le ministère de l'Agriculture des Etats-Unis, la distribution de Bacopa monnieri comprend des pays d'Afrique, d'Asie, d'Amérique du Nord, d'Amérique du Sud et l'Australie[5].
+Elle a également été trouvée depuis les années 1980 dans le sud de l'Europe. Selon le ministère de l'Agriculture des Etats-Unis, la distribution de Bacopa monnieri comprend des pays d'Afrique, d'Asie, d'Amérique du Nord, d'Amérique du Sud et l'Australie.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Feuilles : elles sont succulentes, relativement épaisses. De forme oblancéolée, elles sont disposées de façon opposée sur la tige.
 Fleurs : elles sont petites et blanches, à quatre ou cinq pétales.</t>
@@ -606,9 +624,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La multiplication se fait traditionnellement par bouturage mais la multiplication in vitro est aujourd'hui également possible[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La multiplication se fait traditionnellement par bouturage mais la multiplication in vitro est aujourd'hui également possible.
 </t>
         </is>
       </c>
@@ -637,13 +657,15 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est utilisée en aquariophilie comme plante décorative en eau douce à saumâtre.
-Elle pourrait éventuellement être utilisée pour la phytoépuration ; dans ce cadre, sa résistance à certains polluants (cadmium notamment, contre lequel elle produit des phytochélateurs) a été étudiée[7],[8].
-C'est aussi un ingrédient de la médecine ayurvédique qui la prescrit pour améliorer la mémoire[9], l'intelligence et pour revitaliser les organes des sens[10]. 
-Une expérience australienne randomisée en double aveugle ayant porté sur 70 adultes (de 40 et 65 ans), avec contrôle/placebo a porté sur les effets de cette plante sur plusieurs fonctions différentes de la mémoire et le niveau d'anxiété. Après trois tests faits avant, puis 3 et 6 mois après le traitement les auteurs ont conclu en 2002 à « un effet significatif du Brahmi pour les tests de mémorisation de nouvelles informations ». Un ou plusieurs principes actifs (encore à identifier) diminuerai(en)t le taux d'oubli d'informations nouvellement acquises par le cerveau, mais sans améliorer (ni dégrader) les tâches d'attention, la mémoire verbale et visuelle à court terme ou la récupération des connaissances acquises avant l'expérience. Le traitement était sans effet sur l'anxiété selon les expérimentateurs australiens, mais cette même année 2002, Chowdhuri &amp; al concluent à un effet antistress des bacosides de la plante sur le cerveau du rat mâle adulte de souche Sprague Dawley[11].Pour ces raisons, cette plante est aussi étudiée dans le cadre de la lutte contre la maladie d'Alzheimer (un extrait alcoolique de Bacopa monnieri a ainsi été testé chez des rats de souche Wistar sur la cognition et comme éventuel neuroprotecteur contre la dégénérescence dans un  modèle animal de maladie d'Alzheimer induite par l'éthylcholine aziridinium ion (AF64A)[12].
-Une étude indienne a en 2001 conclu à un effet stabilisateur sur les mastocytes[13].
+Elle pourrait éventuellement être utilisée pour la phytoépuration ; dans ce cadre, sa résistance à certains polluants (cadmium notamment, contre lequel elle produit des phytochélateurs) a été étudiée,.
+C'est aussi un ingrédient de la médecine ayurvédique qui la prescrit pour améliorer la mémoire, l'intelligence et pour revitaliser les organes des sens. 
+Une expérience australienne randomisée en double aveugle ayant porté sur 70 adultes (de 40 et 65 ans), avec contrôle/placebo a porté sur les effets de cette plante sur plusieurs fonctions différentes de la mémoire et le niveau d'anxiété. Après trois tests faits avant, puis 3 et 6 mois après le traitement les auteurs ont conclu en 2002 à « un effet significatif du Brahmi pour les tests de mémorisation de nouvelles informations ». Un ou plusieurs principes actifs (encore à identifier) diminuerai(en)t le taux d'oubli d'informations nouvellement acquises par le cerveau, mais sans améliorer (ni dégrader) les tâches d'attention, la mémoire verbale et visuelle à court terme ou la récupération des connaissances acquises avant l'expérience. Le traitement était sans effet sur l'anxiété selon les expérimentateurs australiens, mais cette même année 2002, Chowdhuri &amp; al concluent à un effet antistress des bacosides de la plante sur le cerveau du rat mâle adulte de souche Sprague Dawley.Pour ces raisons, cette plante est aussi étudiée dans le cadre de la lutte contre la maladie d'Alzheimer (un extrait alcoolique de Bacopa monnieri a ainsi été testé chez des rats de souche Wistar sur la cognition et comme éventuel neuroprotecteur contre la dégénérescence dans un  modèle animal de maladie d'Alzheimer induite par l'éthylcholine aziridinium ion (AF64A).
+Une étude indienne a en 2001 conclu à un effet stabilisateur sur les mastocytes.
 </t>
         </is>
       </c>
@@ -672,7 +694,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lysimachia monnieri L.
 Bramia monnieri (L.) Drake
